--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.030421.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.030421.xlsx_with_dialog_acts.xlsx
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1043,12 +1043,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2171,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2815,12 +2815,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3231,12 +3231,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3731,12 +3731,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3857,12 +3857,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3933,12 +3933,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4185,12 +4185,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4543,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4627,12 +4627,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4669,12 +4669,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4711,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4753,12 +4753,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5355,12 +5355,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5515,12 +5515,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6905,12 +6905,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7373,12 +7373,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7689,12 +7689,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8581,12 +8581,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8657,12 +8657,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9243,12 +9243,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9281,12 +9281,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9433,12 +9433,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9475,12 +9475,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9601,12 +9601,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9849,12 +9849,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10355,12 +10355,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10393,12 +10393,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10687,12 +10687,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10725,12 +10725,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10877,12 +10877,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11533,12 +11533,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12117,12 +12117,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12521,12 +12521,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12647,12 +12647,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13109,12 +13109,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13513,12 +13513,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14031,12 +14031,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14325,12 +14325,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14657,12 +14657,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14699,12 +14699,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14977,12 +14977,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16077,12 +16077,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16751,12 +16751,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16877,12 +16877,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17105,12 +17105,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17395,12 +17395,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17715,12 +17715,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17791,12 +17791,12 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18553,12 +18553,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18953,12 +18953,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19189,12 +19189,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19551,12 +19551,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19719,12 +19719,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19929,12 +19929,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20097,12 +20097,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20139,12 +20139,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20475,12 +20475,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21481,12 +21481,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21519,12 +21519,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22105,12 +22105,12 @@
       <c r="H536" t="inlineStr"/>
       <c r="I536" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22295,12 +22295,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22565,12 +22565,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23113,12 +23113,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23189,12 +23189,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23387,12 +23387,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23813,12 +23813,12 @@
       <c r="H580" t="inlineStr"/>
       <c r="I580" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24293,12 +24293,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24689,12 +24689,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24879,12 +24879,12 @@
       <c r="H607" t="inlineStr"/>
       <c r="I607" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25299,12 +25299,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25803,12 +25803,12 @@
       <c r="H629" t="inlineStr"/>
       <c r="I629" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25845,12 +25845,12 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25921,12 +25921,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26195,12 +26195,12 @@
       <c r="H639" t="inlineStr"/>
       <c r="I639" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26591,12 +26591,12 @@
       <c r="H649" t="inlineStr"/>
       <c r="I649" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26667,12 +26667,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26873,12 +26873,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27151,12 +27151,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27691,12 +27691,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28053,12 +28053,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28095,12 +28095,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28179,12 +28179,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28305,12 +28305,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28747,12 +28747,12 @@
       <c r="H703" t="inlineStr"/>
       <c r="I703" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28937,12 +28937,12 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29105,12 +29105,12 @@
       <c r="H712" t="inlineStr"/>
       <c r="I712" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29619,12 +29619,12 @@
       <c r="H725" t="inlineStr"/>
       <c r="I725" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29965,12 +29965,12 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30605,12 +30605,12 @@
       <c r="H750" t="inlineStr"/>
       <c r="I750" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30643,12 +30643,12 @@
       <c r="H751" t="inlineStr"/>
       <c r="I751" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30833,12 +30833,12 @@
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31149,12 +31149,12 @@
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31499,12 +31499,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31777,12 +31777,12 @@
       <c r="H780" t="inlineStr"/>
       <c r="I780" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31815,12 +31815,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32009,12 +32009,12 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32085,12 +32085,12 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32169,12 +32169,12 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33135,12 +33135,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33253,12 +33253,12 @@
       <c r="H818" t="inlineStr"/>
       <c r="I818" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33295,12 +33295,12 @@
       <c r="H819" t="inlineStr"/>
       <c r="I819" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33379,12 +33379,12 @@
       <c r="H821" t="inlineStr"/>
       <c r="I821" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33763,12 +33763,12 @@
       <c r="H831" t="inlineStr"/>
       <c r="I831" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34087,12 +34087,12 @@
       <c r="H839" t="inlineStr"/>
       <c r="I839" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34575,12 +34575,12 @@
       <c r="H851" t="inlineStr"/>
       <c r="I851" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34891,12 +34891,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34967,12 +34967,12 @@
       <c r="H861" t="inlineStr"/>
       <c r="I861" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35275,12 +35275,12 @@
       <c r="H869" t="inlineStr"/>
       <c r="I869" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35549,12 +35549,12 @@
       <c r="H876" t="inlineStr"/>
       <c r="I876" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35743,12 +35743,12 @@
       <c r="H881" t="inlineStr"/>
       <c r="I881" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35899,12 +35899,12 @@
       <c r="H885" t="inlineStr"/>
       <c r="I885" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35979,12 +35979,12 @@
       <c r="H887" t="inlineStr"/>
       <c r="I887" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36017,12 +36017,12 @@
       <c r="H888" t="inlineStr"/>
       <c r="I888" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36223,12 +36223,12 @@
       <c r="H893" t="inlineStr"/>
       <c r="I893" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36649,12 +36649,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36885,12 +36885,12 @@
       <c r="H910" t="inlineStr"/>
       <c r="I910" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37049,12 +37049,12 @@
       <c r="H914" t="inlineStr"/>
       <c r="I914" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37759,12 +37759,12 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -37911,12 +37911,12 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38181,12 +38181,12 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38855,12 +38855,12 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38893,12 +38893,12 @@
       <c r="H960" t="inlineStr"/>
       <c r="I960" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38969,12 +38969,12 @@
       <c r="H962" t="inlineStr"/>
       <c r="I962" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39049,12 +39049,12 @@
       <c r="H964" t="inlineStr"/>
       <c r="I964" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39091,12 +39091,12 @@
       <c r="H965" t="inlineStr"/>
       <c r="I965" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39217,12 +39217,12 @@
       <c r="H968" t="inlineStr"/>
       <c r="I968" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39259,12 +39259,12 @@
       <c r="H969" t="inlineStr"/>
       <c r="I969" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39529,12 +39529,12 @@
       <c r="H976" t="inlineStr"/>
       <c r="I976" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39651,12 +39651,12 @@
       <c r="H979" t="inlineStr"/>
       <c r="I979" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39769,12 +39769,12 @@
       <c r="H982" t="inlineStr"/>
       <c r="I982" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -39811,12 +39811,12 @@
       <c r="H983" t="inlineStr"/>
       <c r="I983" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40231,12 +40231,12 @@
       <c r="H993" t="inlineStr"/>
       <c r="I993" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40615,12 +40615,12 @@
       <c r="H1003" t="inlineStr"/>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40657,12 +40657,12 @@
       <c r="H1004" t="inlineStr"/>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40847,12 +40847,12 @@
       <c r="H1009" t="inlineStr"/>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41121,12 +41121,12 @@
       <c r="H1016" t="inlineStr"/>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -41411,12 +41411,12 @@
       <c r="H1023" t="inlineStr"/>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41853,12 +41853,12 @@
       <c r="H1034" t="inlineStr"/>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42553,12 +42553,12 @@
       <c r="H1052" t="inlineStr"/>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42629,12 +42629,12 @@
       <c r="H1054" t="inlineStr"/>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1054" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43091,12 +43091,12 @@
       <c r="H1065" t="inlineStr"/>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1065" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43133,12 +43133,12 @@
       <c r="H1066" t="inlineStr"/>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1066" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43301,12 +43301,12 @@
       <c r="H1070" t="inlineStr"/>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43419,12 +43419,12 @@
       <c r="H1073" t="inlineStr"/>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1073" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43579,12 +43579,12 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43617,12 +43617,12 @@
       <c r="H1078" t="inlineStr"/>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1078" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -43731,12 +43731,12 @@
       <c r="H1081" t="inlineStr"/>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1081" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43895,12 +43895,12 @@
       <c r="H1085" t="inlineStr"/>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1085" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -43979,12 +43979,12 @@
       <c r="H1087" t="inlineStr"/>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44021,12 +44021,12 @@
       <c r="H1088" t="inlineStr"/>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44105,12 +44105,12 @@
       <c r="H1090" t="inlineStr"/>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1090" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -44147,12 +44147,12 @@
       <c r="H1091" t="inlineStr"/>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1091" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -44315,12 +44315,12 @@
       <c r="H1095" t="inlineStr"/>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44483,12 +44483,12 @@
       <c r="H1099" t="inlineStr"/>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1099" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -44639,12 +44639,12 @@
       <c r="H1103" t="inlineStr"/>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -44757,12 +44757,12 @@
       <c r="H1106" t="inlineStr"/>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45203,12 +45203,12 @@
       <c r="H1117" t="inlineStr"/>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -45985,12 +45985,12 @@
       <c r="H1136" t="inlineStr"/>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46027,12 +46027,12 @@
       <c r="H1137" t="inlineStr"/>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46313,12 +46313,12 @@
       <c r="H1144" t="inlineStr"/>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46351,12 +46351,12 @@
       <c r="H1145" t="inlineStr"/>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46923,12 +46923,12 @@
       <c r="H1159" t="inlineStr"/>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -46999,12 +46999,12 @@
       <c r="H1161" t="inlineStr"/>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47205,12 +47205,12 @@
       <c r="H1166" t="inlineStr"/>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1166" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -47289,12 +47289,12 @@
       <c r="H1168" t="inlineStr"/>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -47331,12 +47331,12 @@
       <c r="H1169" t="inlineStr"/>
       <c r="I1169" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1169" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47369,12 +47369,12 @@
       <c r="H1170" t="inlineStr"/>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47407,12 +47407,12 @@
       <c r="H1171" t="inlineStr"/>
       <c r="I1171" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1171" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47605,12 +47605,12 @@
       <c r="H1176" t="inlineStr"/>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -47647,12 +47647,12 @@
       <c r="H1177" t="inlineStr"/>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -48065,12 +48065,12 @@
       <c r="H1188" t="inlineStr"/>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -48107,12 +48107,12 @@
       <c r="H1189" t="inlineStr"/>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48233,12 +48233,12 @@
       <c r="H1192" t="inlineStr"/>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -48579,12 +48579,12 @@
       <c r="H1201" t="inlineStr"/>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -48739,12 +48739,12 @@
       <c r="H1205" t="inlineStr"/>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -48907,12 +48907,12 @@
       <c r="H1209" t="inlineStr"/>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -49243,12 +49243,12 @@
       <c r="H1217" t="inlineStr"/>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49445,12 +49445,12 @@
       <c r="H1222" t="inlineStr"/>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49689,12 +49689,12 @@
       <c r="H1228" t="inlineStr"/>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -49773,12 +49773,12 @@
       <c r="H1230" t="inlineStr"/>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1230" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
